--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3788.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3788.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.037308423166477</v>
+        <v>2.352819442749023</v>
       </c>
       <c r="B1">
-        <v>2.376357854341224</v>
+        <v>4.77101993560791</v>
       </c>
       <c r="C1">
-        <v>2.535644213620009</v>
+        <v>2.745707273483276</v>
       </c>
       <c r="D1">
-        <v>3.122282999412163</v>
+        <v>2.393409967422485</v>
       </c>
       <c r="E1">
-        <v>3.070791068403764</v>
+        <v>2.26130485534668</v>
       </c>
     </row>
   </sheetData>
